--- a/Experiments/221220_serine_titrate/buffers-sp.xlsx
+++ b/Experiments/221220_serine_titrate/buffers-sp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221220_serine_titrate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/221220_serine_titrate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1DD86-3C4C-1A44-84C7-2CB1B7FADE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92009E4C-5995-9648-9028-E8F46306F471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Item</t>
-  </si>
-  <si>
-    <t>PlateID</t>
   </si>
   <si>
     <t>Label</t>
@@ -576,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,487 +597,415 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>250</v>
-      </c>
-      <c r="F7">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>932.95676000000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>932.95676000000003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>250</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>1000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>61.225000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>61.225000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18">
-        <v>250</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>19.799999999999901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>19.799999999999901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>48.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>48.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
+      <c r="D24">
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
   </sheetData>
